--- a/GÜNCEL PS EXCEL BİRLEŞİK.xlsx
+++ b/GÜNCEL PS EXCEL BİRLEŞİK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AHMET KAYAALTI\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CAE70B-7088-4D06-98DA-ADF3524A302E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D330DB0-E357-4746-B717-B2C1A73F592B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="0" windowWidth="16800" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="215">
   <si>
     <t>TARİH</t>
   </si>
@@ -401,9 +401,6 @@
     <t>1, 9</t>
   </si>
   <si>
-    <t>10, 11</t>
-  </si>
-  <si>
     <t>NT</t>
   </si>
   <si>
@@ -638,13 +635,7 @@
     <t>10: Psöriatik artrit</t>
   </si>
   <si>
-    <t>11: Crohn</t>
-  </si>
-  <si>
     <t>12: KBY</t>
-  </si>
-  <si>
-    <t>13: FMF</t>
   </si>
   <si>
     <t>14: PCOS</t>
@@ -1203,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1267,40 +1258,40 @@
         <v>8</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
@@ -2549,7 +2540,7 @@
         <v>45231</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C21">
         <v>53</v>
@@ -2564,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2614,7 +2605,7 @@
         <v>45250</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -2744,7 +2735,7 @@
         <v>45264</v>
       </c>
       <c r="B24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C24">
         <v>21</v>
@@ -2809,7 +2800,7 @@
         <v>45268</v>
       </c>
       <c r="B25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C25">
         <v>22</v>
@@ -2874,7 +2865,7 @@
         <v>45271</v>
       </c>
       <c r="B26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26">
         <v>40</v>
@@ -2939,7 +2930,7 @@
         <v>45275</v>
       </c>
       <c r="B27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27">
         <v>48</v>
@@ -3134,7 +3125,7 @@
         <v>45321</v>
       </c>
       <c r="B30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C30">
         <v>23</v>
@@ -3199,7 +3190,7 @@
         <v>45302</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -3264,7 +3255,7 @@
         <v>45334</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C32">
         <v>22</v>
@@ -3329,7 +3320,7 @@
         <v>45317</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C33">
         <v>55</v>
@@ -3524,7 +3515,7 @@
         <v>45323</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C36">
         <v>46</v>
@@ -3649,7 +3640,7 @@
     <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
       <c r="B38" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C38" s="13">
         <v>26</v>
@@ -3721,7 +3712,7 @@
     <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" s="13"/>
       <c r="B39" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C39" s="13">
         <v>26</v>
@@ -3793,7 +3784,7 @@
     <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="13"/>
       <c r="B40" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C40" s="13">
         <v>46</v>
@@ -3865,7 +3856,7 @@
     <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="13"/>
       <c r="B41" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C41" s="13">
         <v>38</v>
@@ -3937,7 +3928,7 @@
     <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="13"/>
       <c r="B42" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C42" s="13">
         <v>42</v>
@@ -4009,7 +4000,7 @@
     <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
       <c r="B43" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C43" s="13">
         <v>42</v>
@@ -4081,7 +4072,7 @@
     <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="13"/>
       <c r="B44" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C44" s="13">
         <v>54</v>
@@ -4153,7 +4144,7 @@
     <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="13"/>
       <c r="B45" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C45" s="13">
         <v>41</v>
@@ -4225,7 +4216,7 @@
     <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="13"/>
       <c r="B46" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C46" s="13">
         <v>19</v>
@@ -4369,7 +4360,7 @@
     <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" s="13"/>
       <c r="B48" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C48" s="13">
         <v>44</v>
@@ -4441,7 +4432,7 @@
     <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" s="13"/>
       <c r="B49" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C49" s="13">
         <v>38</v>
@@ -4585,7 +4576,7 @@
     <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" s="13"/>
       <c r="B51" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C51" s="13">
         <v>42</v>
@@ -6254,7 +6245,7 @@
         <v>2</v>
       </c>
       <c r="G74">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -6569,7 +6560,7 @@
         <v>45250</v>
       </c>
       <c r="B79" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C79">
         <v>56</v>
@@ -6701,7 +6692,7 @@
         <v>45257</v>
       </c>
       <c r="B81" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C81">
         <v>35</v>
@@ -6833,7 +6824,7 @@
         <v>45306</v>
       </c>
       <c r="B83" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C83">
         <v>50</v>
@@ -6899,7 +6890,7 @@
         <v>45323</v>
       </c>
       <c r="B84" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C84">
         <v>62</v>
@@ -6965,7 +6956,7 @@
         <v>45313</v>
       </c>
       <c r="B85" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C85">
         <v>42</v>
@@ -7031,7 +7022,7 @@
         <v>45344</v>
       </c>
       <c r="B86" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C86">
         <v>62</v>
@@ -7226,7 +7217,7 @@
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C89">
         <v>37</v>
@@ -7289,7 +7280,7 @@
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C90">
         <v>24</v>
@@ -7415,7 +7406,7 @@
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C92">
         <v>51</v>
@@ -7478,7 +7469,7 @@
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C93">
         <v>24</v>
@@ -7541,7 +7532,7 @@
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C94">
         <v>76</v>
@@ -7667,7 +7658,7 @@
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C96">
         <v>43</v>
@@ -7730,7 +7721,7 @@
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C97">
         <v>37</v>
@@ -7856,7 +7847,7 @@
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C99">
         <v>40</v>
@@ -8042,7 +8033,7 @@
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C102">
         <v>19</v>
@@ -8104,7 +8095,7 @@
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C103">
         <v>42</v>
@@ -8228,7 +8219,7 @@
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C105">
         <v>24</v>
@@ -8290,7 +8281,7 @@
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C106">
         <v>52</v>
@@ -8538,7 +8529,7 @@
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C110">
         <v>58</v>
@@ -11282,8 +11273,8 @@
       <c r="F152">
         <v>1</v>
       </c>
-      <c r="G152" t="s">
-        <v>123</v>
+      <c r="G152">
+        <v>10</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -11398,7 +11389,7 @@
         <v>45268</v>
       </c>
       <c r="B154" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C154">
         <v>60</v>
@@ -11413,7 +11404,7 @@
         <v>1</v>
       </c>
       <c r="G154" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -11847,7 +11838,7 @@
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C161">
         <v>45</v>
@@ -12095,7 +12086,7 @@
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C165">
         <v>45</v>
@@ -12219,7 +12210,7 @@
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C167">
         <v>25</v>
@@ -12281,7 +12272,7 @@
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C168">
         <v>42</v>
@@ -12343,7 +12334,7 @@
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C169">
         <v>32</v>
@@ -14624,7 +14615,7 @@
         <v>1</v>
       </c>
       <c r="G204">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H204">
         <v>1</v>
@@ -15844,7 +15835,7 @@
         <v>45236</v>
       </c>
       <c r="B223" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C223">
         <v>67</v>
@@ -15974,7 +15965,7 @@
         <v>45254</v>
       </c>
       <c r="B225" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C225">
         <v>49</v>
@@ -16039,7 +16030,7 @@
         <v>45264</v>
       </c>
       <c r="B226" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C226">
         <v>63</v>
@@ -16169,7 +16160,7 @@
         <v>45310</v>
       </c>
       <c r="B228" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C228">
         <v>72</v>
@@ -16234,7 +16225,7 @@
         <v>45320</v>
       </c>
       <c r="B229" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C229">
         <v>21</v>
@@ -16299,7 +16290,7 @@
         <v>45324</v>
       </c>
       <c r="B230" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C230">
         <v>39</v>
@@ -16429,7 +16420,7 @@
         <v>45287</v>
       </c>
       <c r="B232" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C232">
         <v>71</v>
@@ -16760,7 +16751,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D1:I14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -16773,121 +16766,114 @@
   <sheetData>
     <row r="1" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" t="s">
         <v>176</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>177</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>178</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>179</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>180</v>
-      </c>
-      <c r="I1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" t="s">
         <v>182</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>183</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>184</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" t="s">
         <v>186</v>
-      </c>
-      <c r="I2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="3" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" t="s">
         <v>188</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>189</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>190</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>191</v>
-      </c>
-      <c r="I3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="4" spans="4:9" x14ac:dyDescent="0.3">
       <c r="F4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="I4" t="s">
         <v>194</v>
-      </c>
-      <c r="I4" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.3">
       <c r="G5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.3">
       <c r="G6" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.3">
       <c r="G7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.3">
       <c r="G8" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.3">
       <c r="G9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.3">
       <c r="G10" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.3">
       <c r="G11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.3">
       <c r="G12" s="11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="G13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="G14" s="11" t="s">
-        <v>205</v>
-      </c>
+      <c r="G14" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.3" bottom="0.3" header="0.3" footer="0.3"/>
